--- a/dataset/bike-sharing.xlsx
+++ b/dataset/bike-sharing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\S2\Thesis\loss-function-comparison\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\S2\Thesis\loss-function-comparison\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7D203FF0-EFA3-4BCE-B27F-DE1B97E74BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E0CA48-26EC-49A5-9BCB-2A50DBF0D9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0C5BD5E-67E0-4D6E-8855-DFE06399E1CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0C5BD5E-67E0-4D6E-8855-DFE06399E1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="day" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>dteday</t>
+    <t>cnt</t>
   </si>
   <si>
-    <t>cnt</t>
+    <t>datetime</t>
   </si>
 </sst>
 </file>
@@ -894,24 +894,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33607EF8-E635-42C1-9088-8FBD89F5B8C1}">
   <dimension ref="A1:B732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A705" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>40544</v>
       </c>
@@ -919,7 +919,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>40545</v>
       </c>
@@ -927,7 +927,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>40546</v>
       </c>
@@ -935,7 +935,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>40547</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>40548</v>
       </c>
@@ -951,7 +951,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>40549</v>
       </c>
@@ -959,7 +959,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>40550</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>40551</v>
       </c>
@@ -975,7 +975,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>40552</v>
       </c>
@@ -983,7 +983,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>40553</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>40554</v>
       </c>
@@ -999,7 +999,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>40555</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>40556</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>40557</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>40558</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>40559</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>40560</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>40561</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>40562</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>40563</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>40564</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>40565</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>40566</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>40567</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>40568</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>40569</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>40570</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>40571</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>40572</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>40573</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>40574</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>40575</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>40576</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>40577</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>40578</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>40579</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>40580</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>40581</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40582</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40583</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40584</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40585</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40586</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>40587</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>40588</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>40589</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>40590</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>40591</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>40592</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>40593</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>40594</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>40595</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>40596</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>40597</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>40598</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>40599</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>40600</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>40601</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>40602</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>40603</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>40604</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>40605</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>40606</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>40607</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>40608</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>40609</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>40610</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>40611</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>40612</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>40613</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>40614</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>40615</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>40616</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>40617</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>40618</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>40619</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>40620</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>40621</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>40622</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>40623</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>40624</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>40625</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>40626</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>40627</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>40628</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>40629</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>40630</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>40631</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>40632</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>40633</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>40634</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>40635</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>40636</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>40637</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>40638</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>40639</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>40640</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>40641</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>40642</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>40643</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>40644</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>40645</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>40646</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>40647</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>40648</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>40649</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>40650</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>40651</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>40652</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>40653</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>40654</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>4189</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>40655</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>40656</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>4036</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>40657</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>40658</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>40659</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>40660</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>40661</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>40662</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>4595</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>40663</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>40664</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>40665</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>40666</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>4451</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>40667</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>40668</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>4433</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>40669</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>40670</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>4714</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>40671</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>4333</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>40672</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>4362</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>40673</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>4803</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>40674</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>4182</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>40675</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>40676</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>4105</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>40677</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>40678</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>4553</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>40679</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>40680</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>40681</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>40682</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>40683</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>40684</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>5805</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>40685</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>40686</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>4274</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>40687</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>4492</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>40688</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>4978</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>40689</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>4677</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>40690</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>4679</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>40691</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>4758</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>40692</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>4788</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>40693</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>40694</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>40695</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>40696</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>4968</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>40697</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>40698</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>5342</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>40699</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>4906</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>40700</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>4548</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>40701</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>40702</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>40703</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>3915</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>40704</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>4586</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>40705</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>4966</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>40706</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>40707</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>40708</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>4891</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>40709</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>5180</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>40710</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>40711</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>4844</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>40712</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>40713</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>40714</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>40715</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>4835</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>40716</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>4507</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>40717</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>4790</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>40718</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>4991</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>40719</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>5202</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>40720</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>5305</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>40721</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>40722</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>4648</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>40723</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>5225</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>40724</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>5515</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>40725</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>5362</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>40726</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>40727</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>4649</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>40728</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>6043</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>40729</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>40730</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>4629</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>40731</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>4592</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>40732</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>40733</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>5336</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>40734</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>4881</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>40735</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>40736</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>4258</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>40737</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>40738</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>5084</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>40739</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>5538</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>40740</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>5923</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>40741</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>40742</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>4458</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>40743</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>4541</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>40744</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>40745</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>40746</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>40747</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>40748</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>40749</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>40750</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>4590</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>40751</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>4656</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>40752</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>40753</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>40754</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>40755</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>40756</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>40757</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>40758</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>40759</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>4576</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>40760</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>4866</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>40761</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>40762</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>40763</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>40764</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>40765</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>40766</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>4792</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>40767</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>4905</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>40768</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>40769</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>40770</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>40771</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>40772</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>4694</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>40773</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>40774</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>4153</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>40775</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>5191</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>40776</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>40777</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>4758</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>40778</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>5895</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>40779</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>5130</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>40780</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>40781</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>4661</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>40782</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>40783</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>4334</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>40784</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>4634</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>40785</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>5204</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>40786</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>5058</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>40787</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>40788</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>4727</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>40789</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>40790</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>40791</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>40792</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>40793</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>40794</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>40795</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>40796</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>40797</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>5046</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>40798</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>4713</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>40799</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>4763</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>40800</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>4785</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>40801</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>40802</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>4760</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>40803</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>4511</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>40804</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>4274</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>40805</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>4539</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>40806</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>40807</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>40808</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>4795</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>40809</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>40810</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>40811</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>40812</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>4630</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>40813</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>40814</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>40815</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>4839</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>40816</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>5202</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>40817</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>40818</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>40819</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>40820</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>4456</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>40821</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>40822</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>4765</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>40823</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>4985</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>40824</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>40825</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>5511</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>40826</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>5117</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>40827</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>4563</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>40828</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>40829</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>40830</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>40831</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>5217</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>40832</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>5041</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>40833</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>40834</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>40835</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>40836</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>40837</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>40838</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>40839</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>40840</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>40841</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>4687</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>40842</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>40843</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>40844</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>40845</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>40846</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>40847</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>40848</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>4068</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>40849</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>4186</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>40850</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>40851</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>40852</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>3926</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>40853</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>40854</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>40855</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>4205</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>40856</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>4109</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>40857</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>40858</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>40859</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>4067</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>40860</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>40861</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>4486</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>40862</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>40863</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>40864</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>40865</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>40866</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>40867</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>40868</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>40869</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>40870</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>40871</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>40872</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>40873</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>40874</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>40875</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>40876</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>40877</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>3613</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>40878</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>40879</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>40880</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>40881</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>40882</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>40883</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>40884</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>40885</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>40886</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>40887</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>40888</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>40889</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>40890</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>40891</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>40892</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>40893</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>40894</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>40895</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>40896</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>40897</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>40898</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>40899</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>40900</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>40901</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>40902</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>40903</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>40904</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>40905</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>40906</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>40907</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>40908</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>40909</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>40910</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>40911</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>40912</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>40913</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>40914</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>40915</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>40916</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>40917</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>40918</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>40919</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>40920</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>40921</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>40922</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>40923</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>40924</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>40925</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>40926</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>40927</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>40928</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>40929</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>40930</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>40931</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>40932</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>40933</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>40934</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>40935</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>40936</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>40937</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>40938</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>40939</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>40940</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>4579</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>40941</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>40942</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>40943</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>40944</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>40945</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>40946</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>40947</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>40948</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>40949</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>40950</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>40951</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>40952</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>40953</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>3922</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>40954</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>4169</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>40955</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>40956</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>40957</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>4318</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>40958</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>40959</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>3129</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>40960</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>40961</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>4773</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>40962</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>5062</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>40963</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>40964</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>40965</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>40966</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>4322</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>40967</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>4363</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>40968</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>40969</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>40970</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>40971</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>40972</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>40973</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>40974</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>40975</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>40976</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>40977</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>40978</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>40979</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>40980</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>5298</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>40981</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>5847</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>40982</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>6312</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>40983</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>6192</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>40984</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>40985</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>7836</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>40986</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>40987</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>6153</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>40988</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>6093</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>40989</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>40990</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>6871</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>40991</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>8362</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>40992</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>40993</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>40994</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>5558</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>40995</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>5102</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>40996</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>5698</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>40997</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>6133</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>40998</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>5459</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>40999</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>6235</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>41000</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>6041</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>41001</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>5936</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>41002</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>6772</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>41003</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>6436</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>41004</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>6457</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>41005</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>6460</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>41006</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>6857</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>41007</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>5169</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>41008</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>5585</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>41009</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>5918</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>41010</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>4862</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>41011</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>41012</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>6398</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>41013</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>7460</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>41014</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>7132</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>41015</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>6370</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>41016</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>6691</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>41017</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>41018</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>6565</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>41019</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>7290</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>41020</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>6624</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>41021</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>41022</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>41023</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>5633</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>41024</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>6196</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>41025</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>5026</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>41026</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>6233</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>41027</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>41028</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>41029</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>5572</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>41030</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>5740</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>41031</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>6169</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>41032</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>6421</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>41033</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>6296</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>41034</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>6883</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>41035</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>6359</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>41036</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>6273</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>41037</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>5728</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>41038</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>4717</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>41039</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>6572</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>41040</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>7030</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>41041</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>7429</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>41042</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>6118</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>41043</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>41044</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>41045</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>7424</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>41046</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>7384</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>41047</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>7639</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>41048</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>8294</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>41049</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>7129</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>41050</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>41051</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>6073</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>41052</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>5260</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>41053</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>6770</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>41054</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>6734</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>41055</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>6536</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>41056</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>6591</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>41057</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>6043</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>41058</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>5743</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>41059</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>6855</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>41060</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>7338</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>41061</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>41062</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>8120</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>41063</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>7641</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>41064</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>6998</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>41065</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>41066</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>7055</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>41067</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>7494</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>41068</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>7736</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>41069</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>7498</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>41070</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>6598</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>41071</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>6664</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>41072</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>4972</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>41073</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>7421</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>41074</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>7363</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>41075</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>7665</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>41076</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>7702</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>41077</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>6978</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>41078</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>5099</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>41079</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>6825</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>41080</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>6211</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>41081</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>5905</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>41082</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>5823</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>41083</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>7458</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>41084</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>6891</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>41085</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>6779</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>41086</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>7442</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>41087</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>7335</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>41088</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>6879</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>41089</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>5463</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>41090</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>5687</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>41091</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>5531</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>41092</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>6227</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>41093</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>6660</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>41094</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>7403</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>41095</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>6241</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>41096</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>6207</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>41097</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>4840</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>41098</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>4672</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>41099</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>6569</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>41100</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>6290</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>41101</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>7264</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>41102</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>7446</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>41103</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>7499</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>41104</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>6969</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>41105</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>6031</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>41106</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>6830</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>41107</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>6786</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>41108</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>5713</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>41109</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>6591</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>41110</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>5870</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>41111</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>4459</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>41112</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>7410</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>41113</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>6966</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>41114</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>7592</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>41115</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>8173</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>41116</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>6861</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>41117</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>41118</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>41119</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>6597</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>41120</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>7105</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>41121</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>7216</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>41122</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>7580</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>41123</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>7261</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>41124</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>7175</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>41125</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>6824</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>41126</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>5464</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>41127</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>7013</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>41128</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>7273</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>41129</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>7534</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>41130</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>7286</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>41131</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>5786</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>41132</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>6299</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>41133</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>6544</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>41134</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>6883</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>41135</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>41136</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>7347</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>41137</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>7605</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>41138</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>7148</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>41139</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>7865</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>41140</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>4549</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>41141</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>6530</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>41142</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>7006</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>41143</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>7375</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>41144</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>7765</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>41145</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>7582</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>41146</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>6053</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>41147</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>5255</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>41148</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>6917</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>41149</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>7040</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>41150</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>7697</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>41151</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>7713</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>41152</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>7350</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>41153</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>6140</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>41154</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>5810</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>41155</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>6034</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>41156</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>6864</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>41157</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>7112</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>41158</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>6203</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>41159</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>7504</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>41160</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>41161</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>8227</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>41162</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>7525</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>41163</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>7767</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>41164</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>7870</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>41165</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>7804</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>41166</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>8009</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>41167</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>8714</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>41168</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>7333</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>41169</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>6869</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>41170</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>41171</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>7591</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>41172</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>7720</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>41173</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>8167</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>41174</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>8395</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>41175</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>7907</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>41176</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>7436</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>41177</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>7538</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>41178</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>7733</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>41179</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>7393</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>41180</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>7415</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>41181</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>8555</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>41182</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>6889</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>41183</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>6778</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>41184</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>4639</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>41185</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>7572</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>41186</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>7328</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>41187</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>8156</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>41188</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>7965</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>41189</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>41190</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>5478</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>41191</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>6392</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>41192</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>7691</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>41193</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>7570</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>41194</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>7282</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>41195</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>7109</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>41196</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>6639</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>41197</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>5875</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>41198</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>7534</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>41199</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>7461</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>41200</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>7509</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>41201</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>5424</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>41202</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>8090</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>41203</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>6824</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>41204</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>7058</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>41205</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>7466</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>41206</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>7693</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>41207</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>7359</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>41208</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>7444</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>41209</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>7852</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>41210</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>4459</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>41211</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>41212</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>41213</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>41214</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>5986</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>41215</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>5847</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>41216</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>5138</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>41217</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>5107</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>41218</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>5259</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>41219</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>5686</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>41220</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>5035</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>41221</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>5315</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>41222</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>5992</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>41223</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>6536</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>41224</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>6852</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>41225</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>6269</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>41226</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>41227</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>5495</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>41228</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>41229</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>5698</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>41230</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>5629</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>41231</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>4669</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>41232</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>41233</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>5634</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>41234</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>5146</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>41235</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>41236</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>41237</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>41238</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>41239</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>41240</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>3959</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>41241</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>5260</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>41242</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>5323</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>41243</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>5668</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>41244</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>5191</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>41245</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>4649</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>41246</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>6234</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>41247</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>6606</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>41248</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>5729</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>41249</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>5375</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>41250</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>41251</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>5582</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>41252</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>41253</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>41254</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>41255</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>5319</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>41256</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>5532</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>41257</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>5611</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>41258</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>5047</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>41259</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>41260</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>4585</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>41261</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>5557</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>41262</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>5267</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <v>41263</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>41264</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <v>41265</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>41266</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <v>41267</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>41268</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <v>41269</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <v>41270</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <v>41271</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <v>41272</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>41273</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>41274</v>
       </c>
